--- a/RM.xlsx
+++ b/RM.xlsx
@@ -17,25 +17,25 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>SI - C (KRTX9AA2)</t>
+  </si>
+  <si>
+    <t>KRTX9AA2</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>TYPE_COURS</t>
+  </si>
+  <si>
     <t>mardi</t>
-  </si>
-  <si>
-    <t>SI - C (KRTX9AA2)</t>
-  </si>
-  <si>
-    <t>KRTX9AA2</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>TYPE_COURS</t>
-  </si>
-  <si>
-    <t>vendredi</t>
   </si>
   <si>
     <t>SI - TD (KRTX9AA2)</t>
@@ -113,7 +113,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45909.0</v>
+        <v>45912.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -143,47 +143,47 @@
       <c r="I3" s="0"/>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="1">
-        <v>45912.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="1">
+        <v>45916.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="I5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>38.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>45916.0</v>
+        <v>45919.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>1</v>
@@ -191,7 +191,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>3</v>
@@ -208,52 +208,52 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I8" s="0"/>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="1">
-        <v>45919.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="1">
+        <v>45923.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>7</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="I10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>39.0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="I11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>45923.0</v>
+        <v>45926.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>1</v>
@@ -261,7 +261,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>3</v>
@@ -278,7 +278,7 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I13" s="0"/>
     </row>
@@ -295,7 +295,7 @@
         <v>45930.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -326,7 +326,7 @@
         <v>45933.0</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -365,7 +365,7 @@
         <v>45975.0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">

--- a/RM.xlsx
+++ b/RM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,6 +32,9 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
@@ -44,10 +47,19 @@
     <t>TYPE_TD</t>
   </si>
   <si>
+    <t>U3-109</t>
+  </si>
+  <si>
+    <t>U3-107</t>
+  </si>
+  <si>
     <t>SI (KRTX9AA2)</t>
   </si>
   <si>
     <t>RM/SY</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
   </si>
   <si>
     <t>TYPE_CONTROLE</t>
@@ -135,10 +147,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -155,7 +169,7 @@
         <v>45916.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -174,10 +188,12 @@
       <c r="E6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G6" s="0"/>
       <c r="H6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="0"/>
     </row>
@@ -191,7 +207,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>3</v>
@@ -205,10 +221,12 @@
       <c r="E8" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G8" s="0"/>
       <c r="H8" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="0"/>
     </row>
@@ -225,12 +243,12 @@
         <v>45923.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>3</v>
@@ -244,10 +262,12 @@
       <c r="E11" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F11" s="0"/>
+      <c r="F11" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G11" s="0"/>
       <c r="H11" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="0"/>
     </row>
@@ -275,10 +295,12 @@
       <c r="E13" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F13" s="0"/>
+      <c r="F13" t="s" s="0">
+        <v>12</v>
+      </c>
       <c r="G13" s="0"/>
       <c r="H13" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="0"/>
     </row>
@@ -295,7 +317,7 @@
         <v>45930.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -314,10 +336,12 @@
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F16" s="0"/>
+      <c r="F16" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="0"/>
     </row>
@@ -345,10 +369,12 @@
       <c r="E18" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F18" s="0"/>
+      <c r="F18" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G18" s="0"/>
       <c r="H18" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18" s="0"/>
     </row>
@@ -370,13 +396,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s" s="0">
         <v>5</v>
@@ -384,10 +410,12 @@
       <c r="E21" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F21" s="0"/>
+      <c r="F21" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="G21" s="0"/>
       <c r="H21" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="0"/>
     </row>
